--- a/test/测试合并2.xlsx
+++ b/test/测试合并2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,10 @@
   <si>
     <t>第三行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第四行</t>
@@ -403,7 +407,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,11 +489,12 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>